--- a/inputs/data.xlsx
+++ b/inputs/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franklin's PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franklin's PC\PycharmProjects\Food-Stamps-Consumer-Behavior-Analysis\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED48C23-2645-4839-B751-F21669B5AC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317DF39-CFF1-414B-A263-CD4FA8E41F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2286,7 +2286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2307,6 +2307,19 @@
       <bottom style="thin">
         <color theme="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2601,7 +2614,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2612,6 +2625,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="287">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2902,7 +2918,1377 @@
     <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF393F47"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2927,6 +4313,47 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1076711-824A-4FD4-BBF8-036F947C4661}" name="Table1" displayName="Table1" ref="A1:AF1003" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="34">
+  <autoFilter ref="A1:AF1003" xr:uid="{B1076711-824A-4FD4-BBF8-036F947C4661}"/>
+  <tableColumns count="32">
+    <tableColumn id="1" xr3:uid="{477E2756-3DD6-4F39-A374-71A5B8446327}" name="Country" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{EAA5C65F-0BC7-453D-BC29-75F3614E174E}" name="State" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{D1B45772-C73E-4C31-BBF6-FA6B6D45FD51}" name="City" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{230B062B-B1D9-4E04-A76F-7F0E7B871D44}" name="BUYbroccoli" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{A3E1B5B6-8E66-4299-AF42-48D883597D54}" name="BUYasparagus" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{FC3E864A-CC55-40E3-9B4B-7D73073C4815}" name="BUYsquash" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{B0763D4D-E696-45D4-81AC-066E32156D6F}" name="BUYcupcakes" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{0C601F56-4518-49B9-9F25-448BCBF8D630}" name="BUYcheesecake" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{DC118A7B-C45C-4F19-8D29-BE1C1B6C52A8}" name="BUYdonut" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{2062BBFF-6598-478D-AF41-4892EABCBF19}" name="BUYcocacola" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{7161A79A-27DC-4DF7-9E5C-5C5CFF7727F1}" name="BUYmuesli" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{6A5989D8-319B-4D14-A0B1-E3BD4148FA04}" name="Number_HedonicProducts" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{1D4D5C1E-A42F-43BA-B22E-905E49616AD1}" name="Number_UtilitarianProducts" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{3C2E4435-DF1C-4272-ABC3-C5079D077F92}" name="TotalProducts" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{D7F99227-F6A8-4B11-B842-9738F13FFEF3}" name="Hedonic_Value" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{73CA53C8-B522-433F-90DD-319E401E731B}" name="Utilitarian_Value" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{C3FB619E-3439-4FA0-AB7D-E56AE3FDA991}" name="TotalValue" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{1D4F07A6-6065-4CE4-97E7-29B1592DE033}" name="Unhealthy_Hedonicproducts" dataDxfId="16"/>
+    <tableColumn id="19" xr3:uid="{880444AE-7EEF-415E-BF5A-133566B20E0F}" name="Unhealthy_Utilitarianproducts" dataDxfId="15"/>
+    <tableColumn id="20" xr3:uid="{3B875387-8E92-4F1A-8D81-03256BC70EA8}" name="Crave_Hedonicproducts" dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{48702E3C-40AE-4523-BDAB-145B1D745B24}" name="Crave_Utilitarianproducts" dataDxfId="13"/>
+    <tableColumn id="22" xr3:uid="{37C0A110-AB94-4197-8B62-264BBEA071C0}" name="Pvalue_Hedonic" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{1F9C4937-4FE8-4AF4-B8D1-193FE35D9E17}" name="Pvalue_Utilitarian" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{2AD738B5-86F5-4D83-8535-88D48D57BCAE}" name="EBTuser" dataDxfId="10"/>
+    <tableColumn id="25" xr3:uid="{AE2FF015-08B4-4D92-BDDE-C53BC2E4A1D6}" name="HouseholdType" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{94977D25-3DFE-4CD4-9703-0294E76FEF09}" name="Female" dataDxfId="8"/>
+    <tableColumn id="27" xr3:uid="{20B0DB58-B90F-4460-B9FA-E36ABF2FD14F}" name="Age" dataDxfId="7"/>
+    <tableColumn id="28" xr3:uid="{80987B7B-64B3-47C3-B9F1-EF4D0BC23AF8}" name="Income" dataDxfId="6"/>
+    <tableColumn id="29" xr3:uid="{FF4F5F2A-07BF-4A92-9475-E3437F927BB6}" name="logincome" dataDxfId="5"/>
+    <tableColumn id="30" xr3:uid="{C7681498-B7BA-4154-8F9E-4DD7DDFADD3B}" name="Household_size" dataDxfId="4"/>
+    <tableColumn id="31" xr3:uid="{20208558-AE4D-470C-87EE-AE0BCD07BA2D}" name="Education" dataDxfId="3"/>
+    <tableColumn id="32" xr3:uid="{498A0154-A833-4987-A01D-1523A2CD3E15}" name="Degree" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3194,9 +4621,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB7F15-A4B8-5040-9079-5E5DA76FD855}">
   <dimension ref="A1:AF1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.921875" customWidth="1"/>
+    <col min="7" max="7" width="11.3828125" customWidth="1"/>
+    <col min="8" max="8" width="13.07421875" customWidth="1"/>
+    <col min="12" max="12" width="19.69140625" customWidth="1"/>
+    <col min="13" max="13" width="20.53515625" customWidth="1"/>
+    <col min="14" max="14" width="11.3046875" customWidth="1"/>
+    <col min="15" max="15" width="12.15234375" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="18" max="18" width="21.07421875" customWidth="1"/>
+    <col min="19" max="19" width="21.921875" customWidth="1"/>
+    <col min="20" max="20" width="18.23046875" customWidth="1"/>
+    <col min="21" max="21" width="19.07421875" customWidth="1"/>
+    <col min="22" max="22" width="12.921875" customWidth="1"/>
+    <col min="23" max="23" width="13.765625" customWidth="1"/>
+    <col min="25" max="25" width="12.61328125" customWidth="1"/>
+    <col min="30" max="30" width="12.69140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -101389,104 +102836,107 @@
       </c>
     </row>
     <row r="1003" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1003" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1003" s="2" t="s">
+      <c r="A1003" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1003" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C1003" s="2" t="s">
+      <c r="C1003" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="D1003" s="2">
-        <v>1</v>
-      </c>
-      <c r="E1003" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1003" s="2">
-        <v>1</v>
-      </c>
-      <c r="G1003" s="2">
-        <v>1</v>
-      </c>
-      <c r="H1003" s="2">
-        <v>0</v>
-      </c>
-      <c r="I1003" s="2">
-        <v>1</v>
-      </c>
-      <c r="J1003" s="2">
-        <v>0</v>
-      </c>
-      <c r="K1003" s="2">
-        <v>0</v>
-      </c>
-      <c r="L1003" s="2">
-        <v>2</v>
-      </c>
-      <c r="M1003" s="2">
-        <v>2</v>
-      </c>
-      <c r="N1003" s="2">
-        <v>4</v>
-      </c>
-      <c r="O1003" s="2">
+      <c r="D1003" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1003" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1003" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1003" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1003" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1003" s="4">
+        <v>1</v>
+      </c>
+      <c r="J1003" s="4">
+        <v>0</v>
+      </c>
+      <c r="K1003" s="4">
+        <v>0</v>
+      </c>
+      <c r="L1003" s="4">
+        <v>2</v>
+      </c>
+      <c r="M1003" s="4">
+        <v>2</v>
+      </c>
+      <c r="N1003" s="4">
+        <v>4</v>
+      </c>
+      <c r="O1003" s="4">
         <v>11.98</v>
       </c>
-      <c r="P1003" s="2">
+      <c r="P1003" s="4">
         <v>12.98</v>
       </c>
-      <c r="Q1003" s="2">
+      <c r="Q1003" s="4">
         <v>24.96</v>
       </c>
-      <c r="R1003" s="2">
-        <v>5</v>
-      </c>
-      <c r="S1003" s="2">
+      <c r="R1003" s="4">
+        <v>5</v>
+      </c>
+      <c r="S1003" s="4">
         <v>1.75</v>
       </c>
-      <c r="T1003" s="2">
+      <c r="T1003" s="4">
         <v>3.75</v>
       </c>
-      <c r="U1003" s="2">
-        <v>1</v>
-      </c>
-      <c r="V1003" s="2">
+      <c r="U1003" s="4">
+        <v>1</v>
+      </c>
+      <c r="V1003" s="4">
         <v>3.5</v>
       </c>
-      <c r="W1003" s="2">
+      <c r="W1003" s="4">
         <v>2.25</v>
       </c>
-      <c r="X1003" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y1003" s="2" t="s">
+      <c r="X1003" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y1003" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z1003" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA1003" s="2">
+      <c r="Z1003" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA1003" s="4">
         <v>33</v>
       </c>
-      <c r="AB1003" s="2">
+      <c r="AB1003" s="4">
         <v>75000</v>
       </c>
-      <c r="AC1003" s="2">
+      <c r="AC1003" s="4">
         <v>11.225256725762893</v>
       </c>
-      <c r="AD1003" s="2">
+      <c r="AD1003" s="4">
         <v>8</v>
       </c>
-      <c r="AE1003" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF1003" s="2">
+      <c r="AE1003" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF1003" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>